--- a/Figures and Tables/Table_1.xlsx
+++ b/Figures and Tables/Table_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Huatulco\Figures and Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{641706B6-B28B-4BA4-906B-8486415096BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0124B9DA-853C-47EB-B5CE-F91219EA558A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -365,6 +365,9 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +652,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -746,7 +749,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2">
@@ -914,7 +917,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2">
@@ -940,7 +943,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
@@ -966,7 +969,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="2">
@@ -992,7 +995,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="5">
